--- a/LinkedIn_Profiles_with_status.xlsx
+++ b/LinkedIn_Profiles_with_status.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,1951 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Invalid</t>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bj-knutson-a935ab190</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/steve-ashley-a2b72a16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/philebeling</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/scott-reinard-4b2b0a5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/garry-schwartz-6a8bb167</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christopher-grant-2896b7215</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/andy-richards-9a482787</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/paul-bloom-6ba14580</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/heinz-ruch-4203131</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/joe-creed-55a648160</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michael-burbach-1a4398b8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/glen-parker-b3764a1a3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gracielaracaro</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/yu-nishiwaki-4258bb5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mark-furse-02b1b717</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dan-collins-40396572</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/john-kalinich-9134a21a2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dante-parrini-b0a808b</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/amanda-irwin-64b738a5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/james-varilek-75184a15b</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/laurenjbenjamin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/anthony-crisp-mbci-cbcp-mbcp-fema-mcp-7a9bba24</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/shelley-little-64571019a</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rebecca-webb-hogue-681539119</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ian-ocilka-866604124</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/greg-larioni-7518a31a6</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marjorie-quant-370a4b94</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mark-quantock-a8431a150</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gerchavezpb</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gary-hansen-3293a411</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/brian-pinkerton-34167911</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/john-hill-b724873</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mildred-doane-729358222</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/justin-craigie-402b7876</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/giovanni-russi-25bb4728</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/luke-kellogg-2907241a5</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bill-krueger-a9591830</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/selma-svendsen-6798848</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ian-r-3b89963</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/frank-cicero-887b0026</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jeff-martin-25b90b15</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/danmandolfo</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/frederick-rulander-a8286521</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mark-stevens-ba562843</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dave-sumoski-9a178230</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jason-richter-42062b11</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/irene-fern%c3%a1ndez-msir-msis-chhr-97bab324</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mike-sloboda-049a64a</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/james-magness-9538a7171</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bob-lomicka-8a5a505</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alice-stewart-0342119</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/natalienottage</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/waltersbrandon</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/shannon-anderson-50b7a9bb</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/denis-boudailliez</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/lashanda-cobbs-99702628</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/stefani-ducote</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/tim-stiller-salesmanagement</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/kevin-pohlman-1b8b5747</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/joe-kenmore-87a32019</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/john-gift-mba-cissp-cism-ceh-cih</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/kwhaley4</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dave-valkanoff-b932a45</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/raj-shah-240441248</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/chrissie-cooper2-50a53519</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/herve-berdou-05617a11</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/matthew-holt-b12bb574</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/luca-zherzhabek-737336260</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/davidsteck</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dan-lee-64971ab</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/zachary-dunn-2690085</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/john-santana-489b53162</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/david-lowndes-7895236</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/julianne-cymbalak-127aa848</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/joe-lauko-8b103a11</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/champ-davis-pe-45368b5</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/amishamitpatel</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michael-wiebe-mba-p-eng-10b666</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/harvinder-khangura-747a4012</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/deepak-patil-837b6b8</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/klaus-gross-84b29211</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/aaron-schoonbaert-7438326</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gabriel-schimmel-35262b13</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/clint-filipowicz-7a985788</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/blair-jackson-39192135</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/chris-hackman-35244311</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/larry-miller-4006308</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/pankajjain99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michael-ryan-cism-bb65041a</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ranadheer-thadasina-79144062</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alaka</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/vaidheesh-krishnamurti</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/keith-pfeil-088b361</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/richard-balducci</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mcmahoncolleen</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/chris-dorsey-9181b84</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/greg-frasca-8368b75</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mclaughlinc</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/matthewrsmith</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mark-smillie-b12b388</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/matt-bunch-6019b513</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/chris-mckee-3b1946116</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/paul-escobedo-cissp-05790a23</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/scottmancini</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/stephen-shafer-82167117</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/tim-waters-959297188</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/eric-musser</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/daniel-bovill-mba-cissp-cisa-itilv4-969a1710</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dave-katz-2bb80a1</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/tessc</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/martin-mazor-8560b94</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/tim-theisner-977639</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/davedoherty1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/brandtaaron</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/john-palmer-7b42667</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michael-cook-6759854b</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/cadu-cerqueira</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/msinicropi</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/patty-ryan-9693682</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/daniel-mcconkie-22827b4a</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/katherinetrinidad</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/flavio-enor-prezzi-61777229</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/prasanna-gurumurthy-1419a832</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dave-fijas-0871a081</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/larry-patterson-72216732</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rich-seagreaves-abaa0118</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/henning-kornbrekke-28737611</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dell-burt-b5469a1a1</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/eyal-rappoport-0b986618a</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bobirdwell</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/eric-sejourne-464b3a1</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bruce-hollywood-9751276</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/john-galantic-12ba527</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gregorio-vazquez-709b825</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/antoine-bethel-08a191145</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/blakelogan</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/leslie-m-920b9427</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/annie-smith-542941248</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/natalie-aranki-cissp-cisa-99277199</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/shellyannekelly</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/eric-ridder-121a787b</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michael-j-schaffer-caia-74040b3</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gina-consylman-45029132</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/todd-mesick-86a3331b</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/hoehl</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/sandra-pinkney-57536b</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/kimberley-mangino-cpa-mba-97420651</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ldianeballciso</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gregg-uecker-6a950293</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ron-davis-cissp-48332339</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/matt-musselman-aa6b915</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mohitchanana</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/antoniobaker576</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/angie-whitney-middleton-74b20aa</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rjtroutman</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexandrazofia</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/sundeep-zaveri</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/kevin-hardenburg-45731b1</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/john-marchionda-60bb431</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/tommy-hayden-54483326b</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/irene-mac-pharmd-mba-b0763ba3</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/theitoptimizer</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Valid</t>
         </is>
       </c>
     </row>
